--- a/biology/Médecine/Prix_décernés_par_l'Inserm/Prix_décernés_par_l'Inserm.xlsx
+++ b/biology/Médecine/Prix_décernés_par_l'Inserm/Prix_décernés_par_l'Inserm.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+          <t>Prix_décernés_par_l'Inserm</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Inserm décerne chaque année depuis 2000 cinq types de prix scientifiques[1] : le Grand Prix, le prix Recherche, le prix Innovation, le prix d'Honneur et le prix International.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Inserm décerne chaque année depuis 2000 cinq types de prix scientifiques : le Grand Prix, le prix Recherche, le prix Innovation, le prix d'Honneur et le prix International.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+          <t>Prix_décernés_par_l'Inserm</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,19 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Grand prix
-Le grand prix rend hommage à un acteur de la recherche scientifique française dont les travaux ont permis des progrès remarquables dans la connaissance de la physiologie humaine, en thérapeutique, et plus largement, dans le domaine de la santé[2].
-Comme la médaille d'or du CNRS[3], il est l'une des plus hautes distinctions scientifiques françaises[4].
-Prix Recherche
-Les prix Recherche distinguent des chercheurs, enseignants-chercheurs et cliniciens-chercheurs, dont les travaux ont particulièrement marqué le champ de la recherche fondamentale, de la recherche clinique et thérapeutique et de la recherche en santé publique.
-Prix Innovation
-Les prix de l'innovation récompensent des ingénieurs, techniciens ou administratifs pour des réalisations originales au service de l'accompagnement de la recherche ;
-Prix d'Honneur
-Prix International
-Depuis 2004, le prix international (aussi appelé jusqu'en 2008, Prix étranger) est décerné, témoignant de la carrière de personnalités scientifiques internationales particulièrement éminentes.
-Prix Spécial
-Prix Opecst-Inserm
-Le prix Opecst-Inserm est décernée conjointement par l'Inserm et par l'Office parlementaire d'évaluation des choix scientifiques et technologiques.
+          <t>Grand prix</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le grand prix rend hommage à un acteur de la recherche scientifique française dont les travaux ont permis des progrès remarquables dans la connaissance de la physiologie humaine, en thérapeutique, et plus largement, dans le domaine de la santé.
+Comme la médaille d'or du CNRS, il est l'une des plus hautes distinctions scientifiques françaises.
 </t>
         </is>
       </c>
@@ -536,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+          <t>Prix_décernés_par_l'Inserm</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,166 +558,1101 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Liste des lauréats par année</t>
+          <t>Présentation des prix</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Lauréats 2000
-Grand prix : Arnold Munnich
+          <t>Prix Recherche</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les prix Recherche distinguent des chercheurs, enseignants-chercheurs et cliniciens-chercheurs, dont les travaux ont particulièrement marqué le champ de la recherche fondamentale, de la recherche clinique et thérapeutique et de la recherche en santé publique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Présentation des prix</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prix Innovation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les prix de l'innovation récompensent des ingénieurs, techniciens ou administratifs pour des réalisations originales au service de l'accompagnement de la recherche ;
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Présentation des prix</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prix International</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 2004, le prix international (aussi appelé jusqu'en 2008, Prix étranger) est décerné, témoignant de la carrière de personnalités scientifiques internationales particulièrement éminentes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Présentation des prix</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prix Opecst-Inserm</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le prix Opecst-Inserm est décernée conjointement par l'Inserm et par l'Office parlementaire d'évaluation des choix scientifiques et technologiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Lauréats 2000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Grand prix : Arnold Munnich
 Prix de Recherche Physiologie et Physiopathologie : Guido Kroemer
 Prix de Recherche thérapeutique : Anne-Catherine Prats
 Prix de Recherche en Santé publique : Laurent Abel
 Prix de l'Innovation "Méthodologie" : Laurent Barantin
-Prix de l'Innovation "Gestion de la Recherche" : Daniel Francal
-Lauréats 2001
-Grand prix : Yves Agid
+Prix de l'Innovation "Gestion de la Recherche" : Daniel Francal</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Lauréats 2001</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Grand prix : Yves Agid
 Prix de Recherche Physiologie et Physiopathologie : Ellen Van Obberghen-Schilling
 Prix de Recherche thérapeutique : Christian Bailly
 Prix de Recherche en Santé publique : Philippe Amouyel
 Prix de l'Innovation "Méthodologie" : Amanda Casrouge
-Prix de l'Innovation "Accompagnement de la Recherche" : Pierrette Beaucerf
-Lauréats 2002
-Grand prix : Monique Capron
+Prix de l'Innovation "Accompagnement de la Recherche" : Pierrette Beaucerf</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Lauréats 2002</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Grand prix : Monique Capron
 Prix de Recherche Physiologie et Physiopathologie : Emiliana Borrelli
 Prix de Recherche thérapeutique : Jean-Louis Mergny
 Prix de Recherche en Santé publique : Marion Leboyer
-Prix de l'Innovation "Méthodologie" : Alice Gueguen, Christiane Rose
-Lauréats 2003
-Grand prix : Miroslav Radman
+Prix de l'Innovation "Méthodologie" : Alice Gueguen, Christiane Rose</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Lauréats 2003</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Grand prix : Miroslav Radman
 Prix de l'Innovation "Méthodologie" : Françoise Péquignot, Jean-Luc Vonesch, Laurent Font (médaille d'honneur)
 Prix de Recherche fondamentale : François Taddei
 Prix de Recherche clinique : Florence Demenais
-Prix de Recherche en Santé publique : Jean-François Ravaud
-Lauréats 2004
-Grand prix : Jean-Marc Egly
+Prix de Recherche en Santé publique : Jean-François Ravaud</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Lauréats 2004</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Grand prix : Jean-Marc Egly
 Prix d'honneur : Pierre Chambon
 Prix Étranger : Harvey Alter
 Prix de Recherche fondamentale : Antoine Triller
 Prix de Recherche clinique et thérapeutique : Élisabeth Tournier-Lasserve
 Prix de Recherche en Santé publique : Catherine Le Galès-Camus
-Prix de l'Innovation "Accompagnement de la Recherche" : Rémi Souchon et Yves Theillère, Michel Depardieu
-Lauréats 2005
-Grand prix : Bernard Malissen
+Prix de l'Innovation "Accompagnement de la Recherche" : Rémi Souchon et Yves Theillère, Michel Depardieu</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Lauréats 2005</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Grand prix : Bernard Malissen
 Prix d'honneur : Jacques Glowinski
 Prix Étranger : David Lane
 Prix de l'Innovation, "Accompagnement de la recherche" : Reine Bareille, Georges Issa
 Prix de Recherche en Physiologie et physiopathologie : Pascale Cossart
 Prix de Recherche clinique et thérapeutique : Pierre Desreumaux
-Prix de Recherche en Santé Publique : François Cambien
-Lauréats 2006
-Grand prix : Pierre Corvol
+Prix de Recherche en Santé Publique : François Cambien</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Lauréats 2006</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Grand prix : Pierre Corvol
 Prix d'honneur : Ketty Schwartz
 Prix Étranger : Chen Zhu
 Prix de l'Innovation : Yara Barreira, Franck Letourneur et Philippe Rostaing
-Prix Recherche : Christian Roux, Marina Cavazzana-Calvo et Antoine Flahault
-Lauréats 2007
-Grand prix : Christine Petit
+Prix Recherche : Christian Roux, Marina Cavazzana-Calvo et Antoine Flahault</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Lauréats 2007</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Grand prix : Christine Petit
 Prix d'honneur : Pierre Ducimetière
 Prix Innovation : Marie-Noëlle Fourmaux, Josy Froger et Chantal Jacquet
 Prix Étranger : Mina Bissell
-Prix Recherche : Benedita Barata da Rocha, Laurence Zitvogel et Eric Jougla
-Lauréats 2008
-Grand prix : Alain Fischer
+Prix Recherche : Benedita Barata da Rocha, Laurence Zitvogel et Eric Jougla</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Lauréats 2008</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Grand prix : Alain Fischer
 Prix d'honneur : Alim-Louis Benabid
 Prix Innovation : Luc Legrès, Nicole Pinhas
 Prix Étranger : Tomas Lindahl
-Prix Recherche : Anne Eichmann, Elena Levashina
-Lauréats 2009
-Grand prix : Yehezkel Ben-Ari
+Prix Recherche : Anne Eichmann, Elena Levashina</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Lauréats 2009</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Grand prix : Yehezkel Ben-Ari
 Prix d'honneur : Nicole Le Douarin
 Prix International : Nora Volkow
 Prix Innovation : Brigitte Bazin, Jean-Marie Garnier
-Prix Recherche : Pierre Brousset, Stanislas Lyonnet
-Lauréats 2010
-Grand prix : Didier Raoult
+Prix Recherche : Pierre Brousset, Stanislas Lyonnet</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Lauréats 2010</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Grand prix : Didier Raoult
 Prix d'honneur : Éliane Gluckman
 Prix International : Denis Duboule
 Prix Innovation : Dominique Donnet-Kamel, Boris Matrot
-Prix Recherche : Jamel Chelly, Naomi Taylor
-Lauréats 2011
-Grand prix : Alain Prochiantz
+Prix Recherche : Jamel Chelly, Naomi Taylor</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Lauréats 2011</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Grand prix : Alain Prochiantz
 Prix d'honneur : Ethel Moustacchi
 Prix International : Susan Gasser
 Prix Innovation : Claude Delpuech, Frédéric Fiore
-Prix Recherche : Geneviève de Saint Basile-Chazelas, Pierre Léopold
-Lauréats 2012
-Grand prix : Philippe Sansonetti
+Prix Recherche : Geneviève de Saint Basile-Chazelas, Pierre Léopold</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Lauréats 2012</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Grand prix : Philippe Sansonetti
 Prix d'honneur : Jean-Paul Soulillou
 Prix International : Ingrid Grummt
 Prix Innovation : Alain de Cesare, Marc Lopez
-Prix Recherche : Sophie Ugolini, Jessica Zucman-Rossi
-Lauréats 2013
-Grand prix : Stanislas Dehaene
+Prix Recherche : Sophie Ugolini, Jessica Zucman-Rossi</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Lauréats 2013</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Grand prix : Stanislas Dehaene
 Prix d'honneur : Daniel Louvard
 Prix International : Ogobara Doumbo
 Prix Innovation : Véronique Guyonnet-Dupérat
 Prix Recherche : Dominique Costagliola, Gulnara Yusupova, Joseph Hemmerlé
-Prix Opecst-Inserm : Jacques Grassi
-Lauréats 2014
-Grand prix : Anne Dejean-Assémat
+Prix Opecst-Inserm : Jacques Grassi</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Lauréats 2014</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Grand prix : Anne Dejean-Assémat
 Prix d'honneur : William Vainchenker
 Prix International : Leszek Borysiewicz
 PrixInnovation : Mathieu Ducros, Frédéric De Bock
 Prix Recherche : Hélène Dollfus, Nadine Cerf-Bensussan
-Prix Opecst-Inserm : Mickaël Tanter
-Lauréats 2015
-Grand prix : Pier-Vincenzo Piazza
+Prix Opecst-Inserm : Mickaël Tanter</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Lauréats 2015</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Grand prix : Pier-Vincenzo Piazza
 Prix d'honneur : Étienne-Émile Baulieu
 Prix International : Peter Piot
 Prix Innovation : René Ferrera, Claire Lissalde
 Prix Recherche : Caroline Robert, Archana Singh-Manoux
-Prix Opecst-Inserm : José-Alain Sahel
-Lauréats 2016
-Grand prix : Jean-Laurent Casanova
+Prix Opecst-Inserm : José-Alain Sahel</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Lauréats 2016</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Grand prix : Jean-Laurent Casanova
 Prix d'honneur : Catherine Barthélémy
 Prix International : Linda Fried
 Prix Innovation : Benjamin Mathieu, Céline Tomkiewicz-Raulet
 Prix Recherche : Rosa Cossart, Xavier Jouven
-Prix Opecst-Inserm : Martine Bungener
-Lauréats 2017
-Grand prix : Edith Heard
+Prix Opecst-Inserm : Martine Bungener</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Lauréats 2017</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Grand prix : Edith Heard
 Prix d'honneur : Claude-Agnès Reynaud et Jean-Claude Weill
 Prix International : Marie-Paule Kieny
 Prix de l'Innovation : Sophie Allart, Ludovic Galas
 Prix d'honneur : Claude-Agnès Reynaud et Jean-Claude Weill
 Prix Opecst-Inserm : Marc Peschanski
-Prix Recherche : Alain Chédotal, Emmanuelle Génin
-Lauréats 2018
-Grand prix : Alain Tedgui
+Prix Recherche : Alain Chédotal, Emmanuelle Génin</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Lauréats 2018</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Grand prix : Alain Tedgui
 Prix d'honneur : Antoine Triller
 Prix International : Elisabetta Dejana
 Prix Innovation : Ahmed Abbas, Nelly Pirot
 Prix Spécial : Pierre Golstein
 Prix Opecst-Inserm : Robert Barouki
-Prix Recherche : Ana-Maria Lennon-Duménil, Nathalie Vergnolle
-Lauréats 2019
-Grand prix : Éric Gilson
+Prix Recherche : Ana-Maria Lennon-Duménil, Nathalie Vergnolle</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Lauréats 2019</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Grand prix : Éric Gilson
 Prix d'honneur : Jean-François Delfraissy
 Prix International : Michel Sadelain
 Prix Innovation : Chiara Guerrera
 Prix Opecst-Inserm : Hervé Chneiweiss
-Prix Recherche : Mathilde Touvier
-Lauréats 2020
-Grand prix : Dominique Costagliola[5]
-Prix Recherche : Florence Ader[6] et France Mentré[7]
-Prix International : Anthony Fauci[8]
-Prix Innovation : Hélène Espérou[9], Jean-Christophe Hébert[10] et Frédérique Lesaulnier[11]
-Prix Opecst-Inserm : Yazdan Yazdanpanah[12]
-Lauréats 2021
-Grand prix : Marion Leboyer
+Prix Recherche : Mathilde Touvier</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Lauréats 2020</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Grand prix : Dominique Costagliola
+Prix Recherche : Florence Ader et France Mentré
+Prix International : Anthony Fauci
+Prix Innovation : Hélène Espérou, Jean-Christophe Hébert et Frédérique Lesaulnier
+Prix Opecst-Inserm : Yazdan Yazdanpanah</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Lauréats 2021</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Grand prix : Marion Leboyer
 Prix Recherche : Pierre-Louis Tharaux
 Prix Science et société Opecst : Laurent Fleury
 Prix Appui à la recherche : Ana Zarubica
-Prix Innovation : Francine Behar-Cohen
-Lauréats 2022
-Grand prix : Olivier Delattre
+Prix Innovation : Francine Behar-Cohen</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Lauréats 2022</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Grand prix : Olivier Delattre
 Prix Recherche : Valérie Gabelica
 Prix Science et société Opecst : Priscille Rivière
 Prix Appui à la recherche : Justine Bertrand-Michel
-Prix Innovation : Valérie Crépel
-Lauréats 2023
-Grand prix : Nadine Cerf-Bensussan
+Prix Innovation : Valérie Crépel</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Prix_décernés_par_l'Inserm</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Prix_d%C3%A9cern%C3%A9s_par_l%27Inserm</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Liste des lauréats par année</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Lauréats 2023</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Grand prix : Nadine Cerf-Bensussan
 Prix Recherche : Thomas Baumert
 Prix Science et société Opecst : Marina Kvaskoff
 Prix Appui à la recherche : Ghislaine Filliatreau
